--- a/ssky.xlsx
+++ b/ssky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\PortableGit-2.36.1-64-bit.7z\bin\Tickets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206C468E-B55D-42A8-9553-950D2E4C432F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089CEE87-2FB8-4CB3-BEEE-43F5C7265357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{256BE814-9CA5-463E-89C0-664AA8CBD0F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>URL</t>
   </si>
@@ -149,10 +149,16 @@
     <t>//div[@style="background: rgb(244, 244, 244); margin-top: 10px;"]/p[2]/div/div</t>
   </si>
   <si>
-    <t>//div[@class="q-option-inner relative-position text-faded"]</t>
-  </si>
-  <si>
     <t>//div[@class="q-option cursor-pointer no-outline row inline no-wrap items-center selectperson q-checkbox q-focusable"]</t>
+  </si>
+  <si>
+    <t>//span[@class="q-option-label"][3]</t>
+  </si>
+  <si>
+    <t>//input[@type="checkbox"]</t>
+  </si>
+  <si>
+    <t>//div[@class="q-option-inner relative-position text-faded"]//span</t>
   </si>
 </sst>
 </file>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6F73A9-49F7-4611-93DF-0D965F823076}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,19 +717,40 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ssky.xlsx
+++ b/ssky.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\PortableGit-2.36.1-64-bit.7z\bin\Tickets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Tickets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089CEE87-2FB8-4CB3-BEEE-43F5C7265357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DA2C74-A531-4D12-A79B-A3EC7F3FE8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{256BE814-9CA5-463E-89C0-664AA8CBD0F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>URL</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>//div[@class="q-option-inner relative-position text-faded"]//span</t>
+  </si>
+  <si>
+    <t>订单确认</t>
+  </si>
+  <si>
+    <t>//div[@class="modal-content"]/div[@class="row"][2]/div[2]</t>
   </si>
 </sst>
 </file>
@@ -529,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6F73A9-49F7-4611-93DF-0D965F823076}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -710,6 +716,17 @@
       </c>
       <c r="D14" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">

--- a/ssky.xlsx
+++ b/ssky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Tickets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DA2C74-A531-4D12-A79B-A3EC7F3FE8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD6B65F-4962-4DE1-BE6A-1ACFD9F392CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{256BE814-9CA5-463E-89C0-664AA8CBD0F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>URL</t>
   </si>
@@ -143,28 +143,10 @@
     <t>//div[@style="background: rgb(244, 244, 244); margin-top: 10px;"]/p[2]/div//input</t>
   </si>
   <si>
-    <t>//i[@class="q-icon q-checkbox-icon cursor-pointer material-icons"][1]</t>
-  </si>
-  <si>
-    <t>//div[@style="background: rgb(244, 244, 244); margin-top: 10px;"]/p[2]/div/div</t>
-  </si>
-  <si>
-    <t>//div[@class="q-option cursor-pointer no-outline row inline no-wrap items-center selectperson q-checkbox q-focusable"]</t>
-  </si>
-  <si>
-    <t>//span[@class="q-option-label"][3]</t>
-  </si>
-  <si>
-    <t>//input[@type="checkbox"]</t>
-  </si>
-  <si>
-    <t>//div[@class="q-option-inner relative-position text-faded"]//span</t>
-  </si>
-  <si>
-    <t>订单确认</t>
-  </si>
-  <si>
-    <t>//div[@class="modal-content"]/div[@class="row"][2]/div[2]</t>
+    <t>//div[@class="modal-content"]/div[@class="row"]/div[@style="padding-left: 15px;"]</t>
+  </si>
+  <si>
+    <t>订单确认, 注：selenium无法定位，通过模拟点击的方式操作</t>
   </si>
 </sst>
 </file>
@@ -533,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6F73A9-49F7-4611-93DF-0D965F823076}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -720,54 +702,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ssky.xlsx
+++ b/ssky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Tickets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD6B65F-4962-4DE1-BE6A-1ACFD9F392CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5BC5CF-E6DD-42FA-87C2-F43AC23DCC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{256BE814-9CA5-463E-89C0-664AA8CBD0F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>URL</t>
   </si>
@@ -147,6 +147,39 @@
   </si>
   <si>
     <t>订单确认, 注：selenium无法定位，通过模拟点击的方式操作</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>//input[@type="text"]</t>
+  </si>
+  <si>
+    <t>//input[@type="password"]</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>//button[@type="button"]</t>
+  </si>
+  <si>
+    <t>登录按钮</t>
+  </si>
+  <si>
+    <t>//p[@style="display: inline-block; padding: 8px 10px; margin: 0px;"][2]//span</t>
+  </si>
+  <si>
+    <t>//div[@style="margin-top: 20px; margin-bottom: 20px; padding: 31px 64px; height: 686px; background: rgb(255, 255, 255);"]/div[1]/div</t>
+  </si>
+  <si>
+    <t>订单信息</t>
+  </si>
+  <si>
+    <t>舱位选择</t>
+  </si>
+  <si>
+    <t>//div[@class="selectport"]/div/div[2]//span</t>
   </si>
 </sst>
 </file>
@@ -191,14 +224,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -515,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6F73A9-49F7-4611-93DF-0D965F823076}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,7 +586,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
@@ -555,173 +597,245 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="6">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A18:A23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="/index" xr:uid="{68FC0D26-FC98-4964-ABE2-942529729523}"/>
-    <hyperlink ref="A10" r:id="rId2" location="/ticket" xr:uid="{686ABCD8-64BC-4DFB-9788-D1D67F8A2FA2}"/>
+    <hyperlink ref="A7" r:id="rId1" location="/index" xr:uid="{68FC0D26-FC98-4964-ABE2-942529729523}"/>
+    <hyperlink ref="A15" r:id="rId2" location="/ticket" xr:uid="{686ABCD8-64BC-4DFB-9788-D1D67F8A2FA2}"/>
     <hyperlink ref="A2" r:id="rId3" location="/login" xr:uid="{60B54B31-92CC-4775-9EC6-6AE6EB385088}"/>
-    <hyperlink ref="A12" r:id="rId4" location="/info" xr:uid="{48B3CE94-768E-4EA7-9EA7-E10554A55D33}"/>
+    <hyperlink ref="A18" r:id="rId4" location="/info" xr:uid="{48B3CE94-768E-4EA7-9EA7-E10554A55D33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
